--- a/xlsx/大理石_intext.xlsx
+++ b/xlsx/大理石_intext.xlsx
@@ -29,7 +29,7 @@
     <t>石灰岩</t>
   </si>
   <si>
-    <t>政策_政策_美國_大理石</t>
+    <t>政策_政策_美国_大理石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%91%E5%B2%A9</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9B%87%E7%B4%8B%E7%9F%B3</t>
   </si>
   <si>
-    <t>蛇紋石</t>
+    <t>蛇纹石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E7%B0%BE%E7%9F%B3</t>
   </si>
   <si>
-    <t>綠簾石</t>
+    <t>绿帘石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%9D%E5%B8%98%E7%9F%B3</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%B4%80%E5%BF%B5%E7%A2%91</t>
   </si>
   <si>
-    <t>華盛頓紀念碑</t>
+    <t>华盛顿纪念碑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E6%9D%90%E6%96%99</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
